--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n242322\Graduation_specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A18F8-6180-4C9B-976B-E78C1FBC51B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D611496-2B93-4D74-885F-CFF3EBEB8158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15450" windowHeight="15585" firstSheet="2" activeTab="5" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
+    <workbookView xWindow="11460" yWindow="0" windowWidth="17445" windowHeight="15585" activeTab="2" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
   <si>
     <t>データベース定義書</t>
     <rPh sb="6" eb="9">
@@ -255,19 +255,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>NICKNAME</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -373,14 +365,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>UPDATEDATE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>REGISTDATE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -471,6 +455,22 @@
   </si>
   <si>
     <t>playCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NickName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>loginPass</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RegistDATE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpdateDATE</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4375,8 +4375,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5002,22 +5002,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="31">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="52"/>
@@ -5038,16 +5038,16 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="26">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="52"/>
@@ -5065,10 +5065,10 @@
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>26</v>
@@ -5077,7 +5077,7 @@
         <v>255</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="52"/>
@@ -5095,13 +5095,13 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
@@ -5121,13 +5121,13 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
@@ -5810,7 +5810,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
@@ -5831,6 +5830,7 @@
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="H58:J58"/>
@@ -5861,7 +5861,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6406,11 +6406,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="65" t="s">
@@ -6442,11 +6442,11 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="69"/>
@@ -6487,22 +6487,22 @@
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="26">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="52"/>
@@ -6523,16 +6523,16 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="26">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="30"/>
@@ -6542,19 +6542,19 @@
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="31">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="30"/>
@@ -6564,16 +6564,16 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" s="26">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -6584,13 +6584,13 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
@@ -6610,13 +6610,13 @@
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
@@ -7324,10 +7324,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7872,11 +7872,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="65" t="s">
@@ -7906,7 +7906,7 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -7948,28 +7948,30 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
+      <c r="A6" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E6" s="26">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="52"/>
       <c r="I6" s="53"/>
       <c r="J6" s="54"/>
       <c r="L6" s="20" t="e">
-        <f t="shared" ref="L6:L16" si="0">LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
+        <f t="shared" ref="L6:L16" si="0">LOOKUP(10^17,RIGHT(K6,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="20" t="e">
@@ -7980,18 +7982,20 @@
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="26">
-        <v>10</v>
-      </c>
-      <c r="F7" s="25"/>
+        <v>255</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="52"/>
       <c r="I7" s="53"/>
@@ -8008,15 +8012,17 @@
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="26">
+        <v>255</v>
+      </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="52"/>
@@ -8034,13 +8040,13 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
@@ -8060,13 +8066,13 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
@@ -8086,13 +8092,13 @@
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
@@ -8111,9 +8117,15 @@
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -8154,7 +8166,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="52"/>
@@ -8174,7 +8186,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="52"/>
@@ -8226,7 +8238,7 @@
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="52"/>
@@ -8238,7 +8250,7 @@
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="52"/>
@@ -8310,7 +8322,7 @@
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="52"/>
@@ -8367,10 +8379,10 @@
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="52"/>
@@ -8379,10 +8391,10 @@
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="52"/>
@@ -8403,7 +8415,7 @@
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="31"/>
@@ -8415,7 +8427,7 @@
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="31"/>
@@ -8439,10 +8451,10 @@
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="52"/>
@@ -8478,7 +8490,7 @@
       <c r="B39" s="27"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="52"/>
@@ -8562,7 +8574,7 @@
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="52"/>
@@ -8726,16 +8738,24 @@
       <c r="J59" s="48"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="22"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="22"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="22"/>
       <c r="H60" s="49"/>
       <c r="I60" s="50"/>
       <c r="J60" s="51"/>
+    </row>
+    <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="22"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -8826,8 +8846,8 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9372,11 +9392,11 @@
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="65" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="65" t="s">
@@ -9406,7 +9426,7 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -9449,22 +9469,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="26">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="52"/>
@@ -9485,16 +9505,16 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="26">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="52"/>
@@ -9512,10 +9532,10 @@
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -9536,13 +9556,13 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
@@ -9562,13 +9582,13 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
@@ -9588,13 +9608,13 @@
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
@@ -9614,13 +9634,13 @@
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
@@ -10255,11 +10275,6 @@
     <mergeCell ref="H56:J56"/>
     <mergeCell ref="H57:J57"/>
     <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H52:J52"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
@@ -10267,11 +10282,11 @@
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
@@ -10279,11 +10294,11 @@
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
@@ -10291,11 +10306,11 @@
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -10303,6 +10318,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>

--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D611496-2B93-4D74-885F-CFF3EBEB8158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A18540B-1128-4A72-80D8-FAF2F30F96AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="0" windowWidth="17445" windowHeight="15585" activeTab="2" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="実績" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'H＆L'!$A$1:$J$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'H＆L'!$A$1:$J$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'テンプレート '!$A$1:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">メダルマスタ!$A$1:$J$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザマスタ!$A$1:$J$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">実績!$A$1:$J$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">実績!$A$1:$J$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'H＆L'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'テンプレート '!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">メダルマスタ!$1:$5</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="65">
   <si>
     <t>データベース定義書</t>
     <rPh sb="6" eb="9">
@@ -307,17 +307,6 @@
   </si>
   <si>
     <t>HLbetMEDAL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HLメダルゲット数</t>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HLgetMEDAL</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -982,6 +971,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,16 +995,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,69 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1509,19 +1498,19 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="S1" s="3"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
     </row>
     <row r="2" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F2" s="1"/>
@@ -1614,39 +1603,39 @@
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="J11" s="8"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="43"/>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="43"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1654,39 +1643,39 @@
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
       <c r="J12" s="8"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1694,39 +1683,39 @@
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="43"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1734,41 +1723,41 @@
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
       <c r="J14" s="8"/>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1776,39 +1765,39 @@
       <c r="G15" s="1"/>
       <c r="H15" s="4"/>
       <c r="J15" s="8"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1816,39 +1805,39 @@
       <c r="G16" s="1"/>
       <c r="H16" s="4"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1863,39 +1852,39 @@
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="43"/>
-      <c r="AK18" s="43"/>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="43"/>
-      <c r="AN18" s="43"/>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="43"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1903,39 +1892,39 @@
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
       <c r="J19" s="8"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="43"/>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="43"/>
-      <c r="AL19" s="43"/>
-      <c r="AM19" s="43"/>
-      <c r="AN19" s="43"/>
-      <c r="AO19" s="43"/>
-      <c r="AP19" s="43"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1943,41 +1932,41 @@
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="J20" s="8"/>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1985,39 +1974,39 @@
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
       <c r="J21" s="8"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2025,39 +2014,39 @@
       <c r="G22" s="1"/>
       <c r="H22" s="4"/>
       <c r="J22" s="8"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="41"/>
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2065,39 +2054,39 @@
       <c r="G23" s="1"/>
       <c r="H23" s="4"/>
       <c r="J23" s="8"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2105,39 +2094,39 @@
       <c r="G24" s="1"/>
       <c r="H24" s="4"/>
       <c r="J24" s="8"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2205,79 +2194,79 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="4"/>
-      <c r="L29" s="39">
+      <c r="L29" s="43">
         <v>45947</v>
       </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
     </row>
     <row r="30" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="4"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
     </row>
     <row r="31" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="1"/>
@@ -2288,79 +2277,79 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="4"/>
-      <c r="L32" s="40">
+      <c r="L32" s="44">
         <v>1</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
     </row>
     <row r="33" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="4"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="40"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="40"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="40"/>
-      <c r="AK33" s="40"/>
-      <c r="AL33" s="40"/>
-      <c r="AM33" s="40"/>
-      <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="40"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
     </row>
     <row r="34" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F34" s="1"/>
@@ -2412,77 +2401,77 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="4"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-      <c r="AK42" s="39"/>
-      <c r="AL42" s="39"/>
-      <c r="AM42" s="39"/>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="39"/>
-      <c r="AP42" s="39"/>
-      <c r="AQ42" s="39"/>
-      <c r="AR42" s="39"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="43"/>
+      <c r="AN42" s="43"/>
+      <c r="AO42" s="43"/>
+      <c r="AP42" s="43"/>
+      <c r="AQ42" s="43"/>
+      <c r="AR42" s="43"/>
     </row>
     <row r="43" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="4"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="39"/>
-      <c r="AC43" s="39"/>
-      <c r="AD43" s="39"/>
-      <c r="AE43" s="39"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="39"/>
-      <c r="AH43" s="39"/>
-      <c r="AI43" s="39"/>
-      <c r="AJ43" s="39"/>
-      <c r="AK43" s="39"/>
-      <c r="AL43" s="39"/>
-      <c r="AM43" s="39"/>
-      <c r="AN43" s="39"/>
-      <c r="AO43" s="39"/>
-      <c r="AP43" s="39"/>
-      <c r="AQ43" s="39"/>
-      <c r="AR43" s="39"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="43"/>
+      <c r="AM43" s="43"/>
+      <c r="AN43" s="43"/>
+      <c r="AO43" s="43"/>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="43"/>
+      <c r="AR43" s="43"/>
     </row>
     <row r="44" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F44" s="1"/>
@@ -2893,16 +2882,16 @@
     <row r="438" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L23:AR24"/>
+    <mergeCell ref="L29:AR30"/>
+    <mergeCell ref="L32:AR33"/>
+    <mergeCell ref="L42:AR43"/>
+    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:BC1"/>
     <mergeCell ref="L11:AR13"/>
     <mergeCell ref="L14:AR16"/>
     <mergeCell ref="L18:AR19"/>
     <mergeCell ref="L20:AR22"/>
-    <mergeCell ref="L23:AR24"/>
-    <mergeCell ref="L29:AR30"/>
-    <mergeCell ref="L32:AR33"/>
-    <mergeCell ref="L42:AR43"/>
-    <mergeCell ref="AQ1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3442,19 +3431,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -3466,48 +3455,48 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -3531,11 +3520,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -3546,9 +3535,9 @@
       <c r="E6" s="31"/>
       <c r="F6" s="25"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f t="shared" ref="L6:L16" si="0">LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -3566,9 +3555,9 @@
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3586,9 +3575,9 @@
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3606,9 +3595,9 @@
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3626,9 +3615,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3646,9 +3635,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3666,9 +3655,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3686,9 +3675,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3706,9 +3695,9 @@
       <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3726,9 +3715,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3746,9 +3735,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
       <c r="L16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3766,9 +3755,9 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -3778,9 +3767,9 @@
       <c r="E18" s="31"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -3790,9 +3779,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -3802,9 +3791,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -3814,9 +3803,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -3826,9 +3815,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -3838,9 +3827,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -3850,9 +3839,9 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -3862,9 +3851,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -3874,9 +3863,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -3886,9 +3875,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -3898,9 +3887,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -3910,9 +3899,9 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -3922,9 +3911,9 @@
       <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -3934,9 +3923,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -3946,9 +3935,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -3958,9 +3947,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -3970,9 +3959,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -3982,9 +3971,9 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -3994,9 +3983,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -4006,9 +3995,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -4018,9 +4007,9 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -4030,9 +4019,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -4042,9 +4031,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -4054,9 +4043,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -4066,9 +4055,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -4078,9 +4067,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -4090,9 +4079,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -4102,9 +4091,9 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -4114,9 +4103,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -4126,9 +4115,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -4138,9 +4127,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -4150,9 +4139,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -4162,9 +4151,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -4174,9 +4163,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -4186,9 +4175,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -4198,9 +4187,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -4210,9 +4199,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -4222,9 +4211,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -4234,9 +4223,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="65"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -4246,9 +4235,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -4258,9 +4247,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -4270,9 +4259,9 @@
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="48"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
@@ -4282,25 +4271,56 @@
       <c r="E60" s="23"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -4313,50 +4333,19 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4375,7 +4364,7 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4896,19 +4885,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -4920,56 +4909,56 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -4993,16 +4982,16 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>25</v>
@@ -5020,9 +5009,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D14))*1)*-1</f>
         <v>#N/A</v>
@@ -5038,7 +5027,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
@@ -5050,9 +5039,9 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -5068,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>26</v>
@@ -5080,9 +5069,9 @@
         <v>28</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K8,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
@@ -5095,20 +5084,20 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
         <f t="shared" ref="L9:L15" si="1">LOOKUP(10^17,RIGHT(K9,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -5121,20 +5110,20 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5152,9 +5141,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5172,9 +5161,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5192,9 +5181,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5212,9 +5201,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5232,9 +5221,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5252,9 +5241,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -5264,9 +5253,9 @@
       <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -5276,9 +5265,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -5288,9 +5277,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -5300,9 +5289,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -5312,9 +5301,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -5324,9 +5313,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -5336,9 +5325,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -5348,9 +5337,9 @@
       <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -5360,9 +5349,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -5372,9 +5361,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -5384,9 +5373,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -5396,9 +5385,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -5408,9 +5397,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -5420,9 +5409,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -5432,9 +5421,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -5444,9 +5433,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -5456,9 +5445,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -5468,9 +5457,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -5480,9 +5469,9 @@
       <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -5492,9 +5481,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -5504,9 +5493,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -5516,9 +5505,9 @@
       <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -5528,9 +5517,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -5540,9 +5529,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -5552,9 +5541,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -5564,9 +5553,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -5576,9 +5565,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -5588,9 +5577,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -5600,9 +5589,9 @@
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -5612,9 +5601,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -5624,9 +5613,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -5636,9 +5625,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -5648,9 +5637,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -5660,9 +5649,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -5672,9 +5661,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -5684,9 +5673,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -5696,9 +5685,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -5708,9 +5697,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -5720,9 +5709,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -5732,9 +5721,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -5744,9 +5733,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -5756,9 +5745,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
@@ -5768,53 +5757,23 @@
       <c r="E59" s="23"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="H47:J47"/>
@@ -5831,17 +5790,47 @@
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -6381,19 +6370,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -6405,56 +6394,56 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -6478,19 +6467,19 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>34</v>
@@ -6505,9 +6494,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -6523,7 +6512,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
@@ -6545,10 +6534,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="31">
         <v>255</v>
@@ -6564,13 +6553,13 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="26">
         <v>255</v>
@@ -6584,20 +6573,20 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" ref="L10:L15" si="1">LOOKUP(10^17,RIGHT(K10,COLUMN(D19))*1)*-1</f>
         <v>#N/A</v>
@@ -6610,20 +6599,20 @@
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6641,9 +6630,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6661,9 +6650,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6681,9 +6670,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6701,9 +6690,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6721,9 +6710,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -6733,9 +6722,9 @@
       <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -6745,9 +6734,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -6757,9 +6746,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -6769,9 +6758,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -6781,9 +6770,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -6793,9 +6782,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -6805,9 +6794,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -6817,9 +6806,9 @@
       <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -6829,9 +6818,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -6841,9 +6830,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -6853,9 +6842,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -6865,9 +6854,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -6877,9 +6866,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -6889,9 +6878,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -6901,9 +6890,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -6913,9 +6902,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -6925,9 +6914,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -6937,9 +6926,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -6949,9 +6938,9 @@
       <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -6961,9 +6950,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -6973,9 +6962,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -6985,9 +6974,9 @@
       <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -6997,9 +6986,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -7009,9 +6998,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -7021,9 +7010,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -7033,9 +7022,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -7045,9 +7034,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -7057,9 +7046,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -7069,9 +7058,9 @@
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -7081,9 +7070,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -7093,9 +7082,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -7105,9 +7094,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -7117,9 +7106,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -7129,9 +7118,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -7141,9 +7130,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -7153,9 +7142,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -7165,9 +7154,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -7177,9 +7166,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -7189,9 +7178,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -7201,9 +7190,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -7213,9 +7202,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -7225,9 +7214,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
@@ -7237,33 +7226,44 @@
       <c r="E59" s="23"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
@@ -7276,38 +7276,27 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7324,10 +7313,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7847,19 +7836,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -7871,52 +7860,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -7940,19 +7929,19 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>34</v>
@@ -7967,15 +7956,15 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
-        <f t="shared" ref="L6:L16" si="0">LOOKUP(10^17,RIGHT(K6,COLUMN(D16))*1)*-1</f>
+        <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="20" t="e">
-        <f t="shared" ref="M6:M16" si="1">SUBSTITUTE(K6,L6,"")</f>
+        <f t="shared" ref="M6:M15" si="0">SUBSTITUTE(K6,L6,"")</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7988,7 +7977,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="26">
         <v>255</v>
@@ -7997,43 +7986,45 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
+        <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D16))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="26">
         <v>255</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
+        <f t="shared" ref="L8:L15" si="1">LOOKUP(10^17,RIGHT(K8,COLUMN(D18))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8046,98 +8037,96 @@
         <v>56</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="26">
+        <v>255</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M11" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>48</v>
-      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8149,15 +8138,15 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8166,18 +8155,18 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8186,18 +8175,18 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8209,19 +8198,11 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="L16" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -8229,33 +8210,33 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -8265,9 +8246,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -8277,9 +8258,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -8289,9 +8270,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -8301,9 +8282,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -8313,21 +8294,21 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -8337,9 +8318,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -8349,9 +8330,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -8361,9 +8342,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -8373,33 +8354,33 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -8409,33 +8390,33 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -8445,21 +8426,21 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -8469,9 +8450,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -8481,21 +8462,21 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="27"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -8505,9 +8486,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -8517,9 +8498,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -8529,9 +8510,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -8541,9 +8522,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -8553,9 +8534,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -8565,21 +8546,21 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -8589,9 +8570,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -8601,9 +8582,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -8613,9 +8594,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -8625,9 +8606,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -8637,9 +8618,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -8649,9 +8630,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -8661,9 +8642,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -8673,9 +8654,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -8685,9 +8666,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -8697,9 +8678,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -8709,9 +8690,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -8721,9 +8702,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -8732,47 +8713,66 @@
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="48"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="25"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
-    </row>
-    <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="22"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="22"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+  <mergeCells count="68">
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
@@ -8783,51 +8783,19 @@
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -8844,10 +8812,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9367,19 +9335,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -9391,52 +9359,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -9460,19 +9428,19 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>34</v>
@@ -9487,15 +9455,15 @@
         <v>28</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
-        <f t="shared" ref="L6:L16" si="0">LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
+        <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="20" t="e">
-        <f t="shared" ref="M6:M16" si="1">SUBSTITUTE(K6,L6,"")</f>
+        <f t="shared" ref="M6:M17" si="0">SUBSTITUTE(K6,L6,"")</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9505,7 +9473,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
@@ -9517,163 +9485,179 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
+        <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D17))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26">
+        <v>255</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
+        <f>LOOKUP(10^17,RIGHT(K8,COLUMN(D18))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="26">
+        <v>255</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
+        <f>LOOKUP(10^17,RIGHT(K9,COLUMN(D19))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="E10" s="26">
+        <v>255</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
+        <f>LOOKUP(10^17,RIGHT(K10,COLUMN(D20))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="26">
+        <v>255</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="L11" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
+        <f t="shared" ref="L12:L17" si="1">LOOKUP(10^17,RIGHT(K12,COLUMN(D21))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M12" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9682,18 +9666,18 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9702,18 +9686,18 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="20" t="e">
-        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -9725,19 +9709,19 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
       <c r="L16" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -9745,35 +9729,43 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="L17" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -9781,11 +9773,11 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -9793,11 +9785,11 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-    </row>
-    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -9805,11 +9797,11 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-    </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -9817,11 +9809,11 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-    </row>
-    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+    </row>
+    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -9829,23 +9821,23 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-    </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+    </row>
+    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-    </row>
-    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -9853,11 +9845,11 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+    </row>
+    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -9865,11 +9857,11 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-    </row>
-    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+    </row>
+    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -9877,11 +9869,11 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-    </row>
-    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+    </row>
+    <row r="29" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -9889,35 +9881,35 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-    </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+    </row>
+    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-    </row>
-    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
+    </row>
+    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-    </row>
-    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+    </row>
+    <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -9925,33 +9917,33 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -9961,21 +9953,21 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -9985,9 +9977,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -9997,21 +9989,21 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="27"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -10021,9 +10013,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -10033,9 +10025,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -10045,9 +10037,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -10057,9 +10049,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -10069,9 +10061,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -10081,21 +10073,21 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -10105,9 +10097,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -10117,9 +10109,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -10129,9 +10121,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -10141,9 +10133,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -10153,9 +10145,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -10165,9 +10157,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -10177,9 +10169,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -10189,9 +10181,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -10201,9 +10193,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -10213,9 +10205,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="65"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -10225,9 +10217,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="65"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -10237,9 +10229,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -10249,34 +10241,86 @@
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="48"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="22"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="69"/>
+    </row>
+    <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="22"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
@@ -10287,55 +10331,15 @@
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -8,29 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A18540B-1128-4A72-80D8-FAF2F30F96AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E85DF21-FCFF-4300-8938-4D91311B8AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
+    <workbookView xWindow="4950" yWindow="2625" windowWidth="19155" windowHeight="11100" firstSheet="1" activeTab="6" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="テンプレート " sheetId="4" r:id="rId2"/>
     <sheet name="ユーザマスタ" sheetId="3" r:id="rId3"/>
     <sheet name="メダルマスタ" sheetId="5" r:id="rId4"/>
-    <sheet name="H＆L" sheetId="6" r:id="rId5"/>
-    <sheet name="実績" sheetId="7" r:id="rId6"/>
+    <sheet name="Pokerマスタ" sheetId="6" r:id="rId5"/>
+    <sheet name="H&amp;Lマスタ" sheetId="9" r:id="rId6"/>
+    <sheet name="メダル推移" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'H＆L'!$A$1:$J$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'H&amp;Lマスタ'!$A$1:$J$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Pokerマスタ!$A$1:$J$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'テンプレート '!$A$1:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">メダルマスタ!$A$1:$J$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">メダル推移!$A$1:$J$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザマスタ!$A$1:$J$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">実績!$A$1:$J$61</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'H＆L'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'H&amp;Lマスタ'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Pokerマスタ!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'テンプレート '!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">メダルマスタ!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">メダル推移!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ユーザマスタ!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">実績!$1:$5</definedName>
     <definedName name="Z_6D75F9A0_0994_4F53_A8D7_9B4A571E9C75_.wvu.PrintArea" localSheetId="0" hidden="1">表紙!$A$1:$BC$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -78,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
   <si>
     <t>データベース定義書</t>
     <rPh sb="6" eb="9">
@@ -306,10 +309,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HLbetMEDAL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>シーズンメダル数</t>
     <rPh sb="7" eb="8">
       <t>スウ</t>
@@ -358,37 +357,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>総メダル消費数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ショウヒスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>総メダル獲得数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクトク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>getCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>lostCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>HLマスタ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -404,10 +372,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HLplayCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>HL獲得メダル数</t>
     <rPh sb="2" eb="4">
       <t>カクトク</t>
@@ -415,35 +379,6 @@
     <rPh sb="7" eb="8">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HLgetCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実績マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>M_ACHIVEMENTS_TABLE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>総プレイ数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>playCount</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -460,6 +395,104 @@
   </si>
   <si>
     <t>UpdateDATE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PKマスタ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>M_PK_TABLE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PKメダルベット数</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PKプレイ数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PK獲得メダル数</t>
+    <rPh sb="2" eb="4">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pkPlayCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pkBetMEDAL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pkGetCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hlBetMEDAL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hlPlayCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hlGetCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>myMedal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所持メダル推移</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MEDAL_DAILY_SNAPSHOT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所持メダル数</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>snapshotDate</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -971,18 +1004,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,67 +1016,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,6 +1045,69 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1498,19 +1531,19 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="S1" s="3"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
     </row>
     <row r="2" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F2" s="1"/>
@@ -1603,39 +1636,39 @@
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="J11" s="8"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1643,39 +1676,39 @@
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
       <c r="J12" s="8"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1683,39 +1716,39 @@
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1723,41 +1756,41 @@
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
       <c r="J14" s="8"/>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1765,39 +1798,39 @@
       <c r="G15" s="1"/>
       <c r="H15" s="4"/>
       <c r="J15" s="8"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1805,39 +1838,39 @@
       <c r="G16" s="1"/>
       <c r="H16" s="4"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1852,39 +1885,39 @@
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1892,39 +1925,39 @@
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
       <c r="J19" s="8"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1932,41 +1965,41 @@
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="J20" s="8"/>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1974,39 +2007,39 @@
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
       <c r="J21" s="8"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2014,39 +2047,39 @@
       <c r="G22" s="1"/>
       <c r="H22" s="4"/>
       <c r="J22" s="8"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2054,39 +2087,39 @@
       <c r="G23" s="1"/>
       <c r="H23" s="4"/>
       <c r="J23" s="8"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2094,39 +2127,39 @@
       <c r="G24" s="1"/>
       <c r="H24" s="4"/>
       <c r="J24" s="8"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2194,79 +2227,79 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="4"/>
-      <c r="L29" s="43">
+      <c r="L29" s="39">
         <v>45947</v>
       </c>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="43"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="43"/>
-      <c r="AR29" s="43"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="39"/>
     </row>
     <row r="30" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="4"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43"/>
-      <c r="AR30" s="43"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
     </row>
     <row r="31" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="1"/>
@@ -2277,79 +2310,79 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="4"/>
-      <c r="L32" s="44">
+      <c r="L32" s="40">
         <v>1</v>
       </c>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
     </row>
     <row r="33" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="4"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
     </row>
     <row r="34" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F34" s="1"/>
@@ -2401,77 +2434,77 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="4"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="43"/>
-      <c r="AN42" s="43"/>
-      <c r="AO42" s="43"/>
-      <c r="AP42" s="43"/>
-      <c r="AQ42" s="43"/>
-      <c r="AR42" s="43"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="39"/>
+      <c r="AM42" s="39"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="39"/>
+      <c r="AQ42" s="39"/>
+      <c r="AR42" s="39"/>
     </row>
     <row r="43" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="4"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="43"/>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="43"/>
-      <c r="AM43" s="43"/>
-      <c r="AN43" s="43"/>
-      <c r="AO43" s="43"/>
-      <c r="AP43" s="43"/>
-      <c r="AQ43" s="43"/>
-      <c r="AR43" s="43"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="39"/>
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="39"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="39"/>
     </row>
     <row r="44" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F44" s="1"/>
@@ -2882,16 +2915,16 @@
     <row r="438" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="L11:AR13"/>
+    <mergeCell ref="L14:AR16"/>
+    <mergeCell ref="L18:AR19"/>
+    <mergeCell ref="L20:AR22"/>
     <mergeCell ref="L23:AR24"/>
     <mergeCell ref="L29:AR30"/>
     <mergeCell ref="L32:AR33"/>
     <mergeCell ref="L42:AR43"/>
     <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:BC1"/>
-    <mergeCell ref="L11:AR13"/>
-    <mergeCell ref="L14:AR16"/>
-    <mergeCell ref="L18:AR19"/>
-    <mergeCell ref="L20:AR22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3431,19 +3464,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -3455,48 +3488,48 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -3520,11 +3553,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -3535,9 +3568,9 @@
       <c r="E6" s="31"/>
       <c r="F6" s="25"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="L6" s="20" t="e">
         <f t="shared" ref="L6:L16" si="0">LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -3555,9 +3588,9 @@
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="L7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3575,9 +3608,9 @@
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="L8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3595,9 +3628,9 @@
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
       <c r="L9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3615,9 +3648,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3635,9 +3668,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3655,9 +3688,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3675,9 +3708,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3695,9 +3728,9 @@
       <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3715,9 +3748,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3735,9 +3768,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
       <c r="L16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3755,9 +3788,9 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -3767,9 +3800,9 @@
       <c r="E18" s="31"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -3779,9 +3812,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -3791,9 +3824,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -3803,9 +3836,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -3815,9 +3848,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -3827,9 +3860,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -3839,9 +3872,9 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -3851,9 +3884,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -3863,9 +3896,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -3875,9 +3908,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -3887,9 +3920,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -3899,9 +3932,9 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -3911,9 +3944,9 @@
       <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -3923,9 +3956,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -3935,9 +3968,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -3947,9 +3980,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -3959,9 +3992,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -3971,9 +4004,9 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -3983,9 +4016,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -3995,9 +4028,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -4007,9 +4040,9 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -4019,9 +4052,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -4031,9 +4064,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -4043,9 +4076,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -4055,9 +4088,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -4067,9 +4100,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -4079,9 +4112,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -4091,9 +4124,9 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -4103,9 +4136,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -4115,9 +4148,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -4127,9 +4160,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -4139,9 +4172,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="65"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -4151,9 +4184,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -4163,9 +4196,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -4175,9 +4208,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -4187,9 +4220,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -4199,9 +4232,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -4211,9 +4244,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -4223,9 +4256,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="65"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -4235,9 +4268,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -4247,9 +4280,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -4259,9 +4292,9 @@
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="48"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
@@ -4271,20 +4304,61 @@
       <c r="E60" s="23"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="72"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H52:J52"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
@@ -4297,55 +4371,14 @@
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4885,19 +4918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -4909,56 +4942,56 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -4982,16 +5015,16 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>25</v>
@@ -5009,9 +5042,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D14))*1)*-1</f>
         <v>#N/A</v>
@@ -5027,7 +5060,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
@@ -5039,9 +5072,9 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="L7" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -5057,7 +5090,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>26</v>
@@ -5069,9 +5102,9 @@
         <v>28</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="L8" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K8,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
@@ -5084,20 +5117,20 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
       <c r="L9" s="20" t="e">
         <f t="shared" ref="L9:L15" si="1">LOOKUP(10^17,RIGHT(K9,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -5110,20 +5143,20 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5141,9 +5174,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5161,9 +5194,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5181,9 +5214,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5201,9 +5234,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5221,9 +5254,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5241,9 +5274,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -5253,9 +5286,9 @@
       <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -5265,9 +5298,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -5277,9 +5310,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -5289,9 +5322,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -5301,9 +5334,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -5313,9 +5346,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -5325,9 +5358,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -5337,9 +5370,9 @@
       <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -5349,9 +5382,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -5361,9 +5394,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -5373,9 +5406,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -5385,9 +5418,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -5397,9 +5430,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -5409,9 +5442,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -5421,9 +5454,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -5433,9 +5466,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -5445,9 +5478,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -5457,9 +5490,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -5469,9 +5502,9 @@
       <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -5481,9 +5514,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -5493,9 +5526,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -5505,9 +5538,9 @@
       <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -5517,9 +5550,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -5529,9 +5562,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -5541,9 +5574,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -5553,9 +5586,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -5565,9 +5598,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -5577,9 +5610,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -5589,9 +5622,9 @@
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -5601,9 +5634,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -5613,9 +5646,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -5625,9 +5658,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -5637,9 +5670,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="65"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -5649,9 +5682,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -5661,9 +5694,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -5673,9 +5706,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -5685,9 +5718,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -5697,9 +5730,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -5709,9 +5742,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -5721,9 +5754,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -5733,9 +5766,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -5745,9 +5778,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
@@ -5757,23 +5790,53 @@
       <c r="E59" s="23"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="72"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="H47:J47"/>
@@ -5790,47 +5853,17 @@
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H51:J51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -6370,19 +6403,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -6394,56 +6427,56 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -6467,19 +6500,19 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>34</v>
@@ -6494,9 +6527,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -6512,7 +6545,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>26</v>
@@ -6534,10 +6567,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="31">
         <v>255</v>
@@ -6553,13 +6586,13 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="E9" s="26">
         <v>255</v>
@@ -6573,20 +6606,20 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
       <c r="L10" s="20" t="e">
         <f t="shared" ref="L10:L15" si="1">LOOKUP(10^17,RIGHT(K10,COLUMN(D19))*1)*-1</f>
         <v>#N/A</v>
@@ -6599,20 +6632,20 @@
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6630,9 +6663,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6650,9 +6683,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6670,9 +6703,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6690,9 +6723,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6710,9 +6743,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -6722,9 +6755,9 @@
       <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -6734,9 +6767,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -6746,9 +6779,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -6758,9 +6791,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -6770,9 +6803,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -6782,9 +6815,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -6794,9 +6827,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -6806,9 +6839,9 @@
       <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -6818,9 +6851,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -6830,9 +6863,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -6842,9 +6875,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -6854,9 +6887,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -6866,9 +6899,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -6878,9 +6911,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -6890,9 +6923,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -6902,9 +6935,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -6914,9 +6947,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -6926,9 +6959,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -6938,9 +6971,9 @@
       <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -6950,9 +6983,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -6962,9 +6995,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -6974,9 +7007,9 @@
       <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -6986,9 +7019,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -6998,9 +7031,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -7010,9 +7043,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -7022,9 +7055,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -7034,9 +7067,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -7046,9 +7079,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -7058,9 +7091,9 @@
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -7070,9 +7103,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -7082,9 +7115,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -7094,9 +7127,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -7106,9 +7139,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="65"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -7118,9 +7151,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -7130,9 +7163,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -7142,9 +7175,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -7154,9 +7187,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -7166,9 +7199,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -7178,9 +7211,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -7190,9 +7223,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -7202,9 +7235,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -7214,9 +7247,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
@@ -7226,20 +7259,57 @@
       <c r="E59" s="23"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="72"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
@@ -7252,51 +7322,14 @@
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7315,8 +7348,8 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7836,19 +7869,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -7860,52 +7893,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -7929,19 +7962,19 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>34</v>
@@ -7956,9 +7989,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -7971,13 +8004,13 @@
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="26">
         <v>255</v>
@@ -7986,9 +8019,9 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="L7" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
@@ -8001,13 +8034,13 @@
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="26">
         <v>255</v>
@@ -8016,9 +8049,9 @@
         <v>28</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="L8" s="20" t="e">
         <f t="shared" ref="L8:L15" si="1">LOOKUP(10^17,RIGHT(K8,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -8031,13 +8064,13 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="26">
         <v>255</v>
@@ -8046,9 +8079,9 @@
         <v>28</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
       <c r="L9" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8061,20 +8094,20 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8087,20 +8120,20 @@
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8118,9 +8151,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8138,9 +8171,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8158,9 +8191,9 @@
       <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8178,9 +8211,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8198,9 +8231,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -8210,9 +8243,9 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -8222,9 +8255,9 @@
       <c r="E18" s="31"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -8234,9 +8267,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -8246,9 +8279,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -8258,9 +8291,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -8270,9 +8303,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -8282,9 +8315,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -8294,9 +8327,9 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -8306,9 +8339,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -8318,9 +8351,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -8330,9 +8363,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -8342,9 +8375,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -8354,9 +8387,9 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -8366,9 +8399,9 @@
       <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -8378,9 +8411,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -8390,9 +8423,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -8402,9 +8435,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -8414,9 +8447,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -8426,9 +8459,9 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -8438,9 +8471,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -8450,9 +8483,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -8462,9 +8495,9 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -8474,9 +8507,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -8486,9 +8519,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -8498,9 +8531,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -8510,9 +8543,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -8522,9 +8555,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -8534,9 +8567,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -8546,9 +8579,9 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -8558,9 +8591,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -8570,9 +8603,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -8582,9 +8615,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -8594,9 +8627,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="65"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -8606,9 +8639,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -8618,9 +8651,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -8630,9 +8663,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -8642,9 +8675,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -8654,9 +8687,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -8666,9 +8699,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -8678,9 +8711,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -8690,9 +8723,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -8702,9 +8735,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -8714,9 +8747,9 @@
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="72"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
@@ -8728,14 +8761,54 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
@@ -8748,54 +8821,14 @@
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -8808,14 +8841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25FA23-5D69-4760-8A67-DEC443E26AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F58992C-7A47-479D-9F9E-7D314F2BB420}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H14" sqref="H14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9335,19 +9368,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -9359,52 +9392,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="57"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -9428,19 +9461,19 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>34</v>
@@ -9454,42 +9487,42 @@
       <c r="F6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
       <c r="L6" s="20" t="e">
-        <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D16))*1)*-1</f>
+        <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="20" t="e">
-        <f t="shared" ref="M6:M17" si="0">SUBSTITUTE(K6,L6,"")</f>
+        <f t="shared" ref="M6:M15" si="0">SUBSTITUTE(K6,L6,"")</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E7" s="26">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="L7" s="20" t="e">
-        <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D17))*1)*-1</f>
+        <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="20" t="e">
@@ -9500,13 +9533,13 @@
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="26">
         <v>255</v>
@@ -9515,11 +9548,11 @@
         <v>28</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="L8" s="20" t="e">
-        <f>LOOKUP(10^17,RIGHT(K8,COLUMN(D18))*1)*-1</f>
+        <f t="shared" ref="L8:L15" si="1">LOOKUP(10^17,RIGHT(K8,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="20" t="e">
@@ -9530,13 +9563,13 @@
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="26">
         <v>255</v>
@@ -9545,11 +9578,11 @@
         <v>28</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
       <c r="L9" s="20" t="e">
-        <f>LOOKUP(10^17,RIGHT(K9,COLUMN(D19))*1)*-1</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M9" s="20" t="e">
@@ -9560,26 +9593,22 @@
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="26">
-        <v>255</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>28</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
       <c r="L10" s="20" t="e">
-        <f>LOOKUP(10^17,RIGHT(K10,COLUMN(D20))*1)*-1</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M10" s="20" t="e">
@@ -9590,44 +9619,42 @@
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="26">
-        <v>255</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>28</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="L11" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
       <c r="L12" s="20" t="e">
-        <f t="shared" ref="L12:L17" si="1">LOOKUP(10^17,RIGHT(K12,COLUMN(D21))*1)*-1</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M12" s="20" t="e">
@@ -9637,21 +9664,1484 @@
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>46</v>
-      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="L13" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="L14" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="L15" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+    </row>
+    <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="25"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+    </row>
+    <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+    </row>
+    <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="25"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+    </row>
+    <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="25"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
+    </row>
+    <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
+    </row>
+    <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
+    </row>
+    <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="25"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+    </row>
+    <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="25"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
+    </row>
+    <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+    </row>
+    <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="25"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
+    </row>
+    <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+    </row>
+    <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="25"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
+    </row>
+    <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="25"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
+    </row>
+    <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
+    </row>
+    <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="25"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
+    </row>
+    <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="25"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
+    </row>
+    <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="25"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
+    </row>
+    <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
+    </row>
+    <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="25"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
+    </row>
+    <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="25"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
+    </row>
+    <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="25"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="48"/>
+    </row>
+    <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="25"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
+    </row>
+    <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="22"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C- &amp;P / &amp;N -</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257D29EB-B4EF-4612-8F64-DD7E8F7F17A9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="21" customWidth="1"/>
+    <col min="2" max="3" width="20.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="21" customWidth="1"/>
+    <col min="8" max="10" width="10.625" style="20" customWidth="1"/>
+    <col min="11" max="256" width="11" style="20"/>
+    <col min="257" max="257" width="3.625" style="20" customWidth="1"/>
+    <col min="258" max="259" width="20.625" style="20" customWidth="1"/>
+    <col min="260" max="260" width="18.125" style="20" customWidth="1"/>
+    <col min="261" max="261" width="5.375" style="20" customWidth="1"/>
+    <col min="262" max="262" width="5.625" style="20" customWidth="1"/>
+    <col min="263" max="263" width="6.875" style="20" customWidth="1"/>
+    <col min="264" max="266" width="10.625" style="20" customWidth="1"/>
+    <col min="267" max="512" width="11" style="20"/>
+    <col min="513" max="513" width="3.625" style="20" customWidth="1"/>
+    <col min="514" max="515" width="20.625" style="20" customWidth="1"/>
+    <col min="516" max="516" width="18.125" style="20" customWidth="1"/>
+    <col min="517" max="517" width="5.375" style="20" customWidth="1"/>
+    <col min="518" max="518" width="5.625" style="20" customWidth="1"/>
+    <col min="519" max="519" width="6.875" style="20" customWidth="1"/>
+    <col min="520" max="522" width="10.625" style="20" customWidth="1"/>
+    <col min="523" max="768" width="11" style="20"/>
+    <col min="769" max="769" width="3.625" style="20" customWidth="1"/>
+    <col min="770" max="771" width="20.625" style="20" customWidth="1"/>
+    <col min="772" max="772" width="18.125" style="20" customWidth="1"/>
+    <col min="773" max="773" width="5.375" style="20" customWidth="1"/>
+    <col min="774" max="774" width="5.625" style="20" customWidth="1"/>
+    <col min="775" max="775" width="6.875" style="20" customWidth="1"/>
+    <col min="776" max="778" width="10.625" style="20" customWidth="1"/>
+    <col min="779" max="1024" width="11" style="20"/>
+    <col min="1025" max="1025" width="3.625" style="20" customWidth="1"/>
+    <col min="1026" max="1027" width="20.625" style="20" customWidth="1"/>
+    <col min="1028" max="1028" width="18.125" style="20" customWidth="1"/>
+    <col min="1029" max="1029" width="5.375" style="20" customWidth="1"/>
+    <col min="1030" max="1030" width="5.625" style="20" customWidth="1"/>
+    <col min="1031" max="1031" width="6.875" style="20" customWidth="1"/>
+    <col min="1032" max="1034" width="10.625" style="20" customWidth="1"/>
+    <col min="1035" max="1280" width="11" style="20"/>
+    <col min="1281" max="1281" width="3.625" style="20" customWidth="1"/>
+    <col min="1282" max="1283" width="20.625" style="20" customWidth="1"/>
+    <col min="1284" max="1284" width="18.125" style="20" customWidth="1"/>
+    <col min="1285" max="1285" width="5.375" style="20" customWidth="1"/>
+    <col min="1286" max="1286" width="5.625" style="20" customWidth="1"/>
+    <col min="1287" max="1287" width="6.875" style="20" customWidth="1"/>
+    <col min="1288" max="1290" width="10.625" style="20" customWidth="1"/>
+    <col min="1291" max="1536" width="11" style="20"/>
+    <col min="1537" max="1537" width="3.625" style="20" customWidth="1"/>
+    <col min="1538" max="1539" width="20.625" style="20" customWidth="1"/>
+    <col min="1540" max="1540" width="18.125" style="20" customWidth="1"/>
+    <col min="1541" max="1541" width="5.375" style="20" customWidth="1"/>
+    <col min="1542" max="1542" width="5.625" style="20" customWidth="1"/>
+    <col min="1543" max="1543" width="6.875" style="20" customWidth="1"/>
+    <col min="1544" max="1546" width="10.625" style="20" customWidth="1"/>
+    <col min="1547" max="1792" width="11" style="20"/>
+    <col min="1793" max="1793" width="3.625" style="20" customWidth="1"/>
+    <col min="1794" max="1795" width="20.625" style="20" customWidth="1"/>
+    <col min="1796" max="1796" width="18.125" style="20" customWidth="1"/>
+    <col min="1797" max="1797" width="5.375" style="20" customWidth="1"/>
+    <col min="1798" max="1798" width="5.625" style="20" customWidth="1"/>
+    <col min="1799" max="1799" width="6.875" style="20" customWidth="1"/>
+    <col min="1800" max="1802" width="10.625" style="20" customWidth="1"/>
+    <col min="1803" max="2048" width="11" style="20"/>
+    <col min="2049" max="2049" width="3.625" style="20" customWidth="1"/>
+    <col min="2050" max="2051" width="20.625" style="20" customWidth="1"/>
+    <col min="2052" max="2052" width="18.125" style="20" customWidth="1"/>
+    <col min="2053" max="2053" width="5.375" style="20" customWidth="1"/>
+    <col min="2054" max="2054" width="5.625" style="20" customWidth="1"/>
+    <col min="2055" max="2055" width="6.875" style="20" customWidth="1"/>
+    <col min="2056" max="2058" width="10.625" style="20" customWidth="1"/>
+    <col min="2059" max="2304" width="11" style="20"/>
+    <col min="2305" max="2305" width="3.625" style="20" customWidth="1"/>
+    <col min="2306" max="2307" width="20.625" style="20" customWidth="1"/>
+    <col min="2308" max="2308" width="18.125" style="20" customWidth="1"/>
+    <col min="2309" max="2309" width="5.375" style="20" customWidth="1"/>
+    <col min="2310" max="2310" width="5.625" style="20" customWidth="1"/>
+    <col min="2311" max="2311" width="6.875" style="20" customWidth="1"/>
+    <col min="2312" max="2314" width="10.625" style="20" customWidth="1"/>
+    <col min="2315" max="2560" width="11" style="20"/>
+    <col min="2561" max="2561" width="3.625" style="20" customWidth="1"/>
+    <col min="2562" max="2563" width="20.625" style="20" customWidth="1"/>
+    <col min="2564" max="2564" width="18.125" style="20" customWidth="1"/>
+    <col min="2565" max="2565" width="5.375" style="20" customWidth="1"/>
+    <col min="2566" max="2566" width="5.625" style="20" customWidth="1"/>
+    <col min="2567" max="2567" width="6.875" style="20" customWidth="1"/>
+    <col min="2568" max="2570" width="10.625" style="20" customWidth="1"/>
+    <col min="2571" max="2816" width="11" style="20"/>
+    <col min="2817" max="2817" width="3.625" style="20" customWidth="1"/>
+    <col min="2818" max="2819" width="20.625" style="20" customWidth="1"/>
+    <col min="2820" max="2820" width="18.125" style="20" customWidth="1"/>
+    <col min="2821" max="2821" width="5.375" style="20" customWidth="1"/>
+    <col min="2822" max="2822" width="5.625" style="20" customWidth="1"/>
+    <col min="2823" max="2823" width="6.875" style="20" customWidth="1"/>
+    <col min="2824" max="2826" width="10.625" style="20" customWidth="1"/>
+    <col min="2827" max="3072" width="11" style="20"/>
+    <col min="3073" max="3073" width="3.625" style="20" customWidth="1"/>
+    <col min="3074" max="3075" width="20.625" style="20" customWidth="1"/>
+    <col min="3076" max="3076" width="18.125" style="20" customWidth="1"/>
+    <col min="3077" max="3077" width="5.375" style="20" customWidth="1"/>
+    <col min="3078" max="3078" width="5.625" style="20" customWidth="1"/>
+    <col min="3079" max="3079" width="6.875" style="20" customWidth="1"/>
+    <col min="3080" max="3082" width="10.625" style="20" customWidth="1"/>
+    <col min="3083" max="3328" width="11" style="20"/>
+    <col min="3329" max="3329" width="3.625" style="20" customWidth="1"/>
+    <col min="3330" max="3331" width="20.625" style="20" customWidth="1"/>
+    <col min="3332" max="3332" width="18.125" style="20" customWidth="1"/>
+    <col min="3333" max="3333" width="5.375" style="20" customWidth="1"/>
+    <col min="3334" max="3334" width="5.625" style="20" customWidth="1"/>
+    <col min="3335" max="3335" width="6.875" style="20" customWidth="1"/>
+    <col min="3336" max="3338" width="10.625" style="20" customWidth="1"/>
+    <col min="3339" max="3584" width="11" style="20"/>
+    <col min="3585" max="3585" width="3.625" style="20" customWidth="1"/>
+    <col min="3586" max="3587" width="20.625" style="20" customWidth="1"/>
+    <col min="3588" max="3588" width="18.125" style="20" customWidth="1"/>
+    <col min="3589" max="3589" width="5.375" style="20" customWidth="1"/>
+    <col min="3590" max="3590" width="5.625" style="20" customWidth="1"/>
+    <col min="3591" max="3591" width="6.875" style="20" customWidth="1"/>
+    <col min="3592" max="3594" width="10.625" style="20" customWidth="1"/>
+    <col min="3595" max="3840" width="11" style="20"/>
+    <col min="3841" max="3841" width="3.625" style="20" customWidth="1"/>
+    <col min="3842" max="3843" width="20.625" style="20" customWidth="1"/>
+    <col min="3844" max="3844" width="18.125" style="20" customWidth="1"/>
+    <col min="3845" max="3845" width="5.375" style="20" customWidth="1"/>
+    <col min="3846" max="3846" width="5.625" style="20" customWidth="1"/>
+    <col min="3847" max="3847" width="6.875" style="20" customWidth="1"/>
+    <col min="3848" max="3850" width="10.625" style="20" customWidth="1"/>
+    <col min="3851" max="4096" width="11" style="20"/>
+    <col min="4097" max="4097" width="3.625" style="20" customWidth="1"/>
+    <col min="4098" max="4099" width="20.625" style="20" customWidth="1"/>
+    <col min="4100" max="4100" width="18.125" style="20" customWidth="1"/>
+    <col min="4101" max="4101" width="5.375" style="20" customWidth="1"/>
+    <col min="4102" max="4102" width="5.625" style="20" customWidth="1"/>
+    <col min="4103" max="4103" width="6.875" style="20" customWidth="1"/>
+    <col min="4104" max="4106" width="10.625" style="20" customWidth="1"/>
+    <col min="4107" max="4352" width="11" style="20"/>
+    <col min="4353" max="4353" width="3.625" style="20" customWidth="1"/>
+    <col min="4354" max="4355" width="20.625" style="20" customWidth="1"/>
+    <col min="4356" max="4356" width="18.125" style="20" customWidth="1"/>
+    <col min="4357" max="4357" width="5.375" style="20" customWidth="1"/>
+    <col min="4358" max="4358" width="5.625" style="20" customWidth="1"/>
+    <col min="4359" max="4359" width="6.875" style="20" customWidth="1"/>
+    <col min="4360" max="4362" width="10.625" style="20" customWidth="1"/>
+    <col min="4363" max="4608" width="11" style="20"/>
+    <col min="4609" max="4609" width="3.625" style="20" customWidth="1"/>
+    <col min="4610" max="4611" width="20.625" style="20" customWidth="1"/>
+    <col min="4612" max="4612" width="18.125" style="20" customWidth="1"/>
+    <col min="4613" max="4613" width="5.375" style="20" customWidth="1"/>
+    <col min="4614" max="4614" width="5.625" style="20" customWidth="1"/>
+    <col min="4615" max="4615" width="6.875" style="20" customWidth="1"/>
+    <col min="4616" max="4618" width="10.625" style="20" customWidth="1"/>
+    <col min="4619" max="4864" width="11" style="20"/>
+    <col min="4865" max="4865" width="3.625" style="20" customWidth="1"/>
+    <col min="4866" max="4867" width="20.625" style="20" customWidth="1"/>
+    <col min="4868" max="4868" width="18.125" style="20" customWidth="1"/>
+    <col min="4869" max="4869" width="5.375" style="20" customWidth="1"/>
+    <col min="4870" max="4870" width="5.625" style="20" customWidth="1"/>
+    <col min="4871" max="4871" width="6.875" style="20" customWidth="1"/>
+    <col min="4872" max="4874" width="10.625" style="20" customWidth="1"/>
+    <col min="4875" max="5120" width="11" style="20"/>
+    <col min="5121" max="5121" width="3.625" style="20" customWidth="1"/>
+    <col min="5122" max="5123" width="20.625" style="20" customWidth="1"/>
+    <col min="5124" max="5124" width="18.125" style="20" customWidth="1"/>
+    <col min="5125" max="5125" width="5.375" style="20" customWidth="1"/>
+    <col min="5126" max="5126" width="5.625" style="20" customWidth="1"/>
+    <col min="5127" max="5127" width="6.875" style="20" customWidth="1"/>
+    <col min="5128" max="5130" width="10.625" style="20" customWidth="1"/>
+    <col min="5131" max="5376" width="11" style="20"/>
+    <col min="5377" max="5377" width="3.625" style="20" customWidth="1"/>
+    <col min="5378" max="5379" width="20.625" style="20" customWidth="1"/>
+    <col min="5380" max="5380" width="18.125" style="20" customWidth="1"/>
+    <col min="5381" max="5381" width="5.375" style="20" customWidth="1"/>
+    <col min="5382" max="5382" width="5.625" style="20" customWidth="1"/>
+    <col min="5383" max="5383" width="6.875" style="20" customWidth="1"/>
+    <col min="5384" max="5386" width="10.625" style="20" customWidth="1"/>
+    <col min="5387" max="5632" width="11" style="20"/>
+    <col min="5633" max="5633" width="3.625" style="20" customWidth="1"/>
+    <col min="5634" max="5635" width="20.625" style="20" customWidth="1"/>
+    <col min="5636" max="5636" width="18.125" style="20" customWidth="1"/>
+    <col min="5637" max="5637" width="5.375" style="20" customWidth="1"/>
+    <col min="5638" max="5638" width="5.625" style="20" customWidth="1"/>
+    <col min="5639" max="5639" width="6.875" style="20" customWidth="1"/>
+    <col min="5640" max="5642" width="10.625" style="20" customWidth="1"/>
+    <col min="5643" max="5888" width="11" style="20"/>
+    <col min="5889" max="5889" width="3.625" style="20" customWidth="1"/>
+    <col min="5890" max="5891" width="20.625" style="20" customWidth="1"/>
+    <col min="5892" max="5892" width="18.125" style="20" customWidth="1"/>
+    <col min="5893" max="5893" width="5.375" style="20" customWidth="1"/>
+    <col min="5894" max="5894" width="5.625" style="20" customWidth="1"/>
+    <col min="5895" max="5895" width="6.875" style="20" customWidth="1"/>
+    <col min="5896" max="5898" width="10.625" style="20" customWidth="1"/>
+    <col min="5899" max="6144" width="11" style="20"/>
+    <col min="6145" max="6145" width="3.625" style="20" customWidth="1"/>
+    <col min="6146" max="6147" width="20.625" style="20" customWidth="1"/>
+    <col min="6148" max="6148" width="18.125" style="20" customWidth="1"/>
+    <col min="6149" max="6149" width="5.375" style="20" customWidth="1"/>
+    <col min="6150" max="6150" width="5.625" style="20" customWidth="1"/>
+    <col min="6151" max="6151" width="6.875" style="20" customWidth="1"/>
+    <col min="6152" max="6154" width="10.625" style="20" customWidth="1"/>
+    <col min="6155" max="6400" width="11" style="20"/>
+    <col min="6401" max="6401" width="3.625" style="20" customWidth="1"/>
+    <col min="6402" max="6403" width="20.625" style="20" customWidth="1"/>
+    <col min="6404" max="6404" width="18.125" style="20" customWidth="1"/>
+    <col min="6405" max="6405" width="5.375" style="20" customWidth="1"/>
+    <col min="6406" max="6406" width="5.625" style="20" customWidth="1"/>
+    <col min="6407" max="6407" width="6.875" style="20" customWidth="1"/>
+    <col min="6408" max="6410" width="10.625" style="20" customWidth="1"/>
+    <col min="6411" max="6656" width="11" style="20"/>
+    <col min="6657" max="6657" width="3.625" style="20" customWidth="1"/>
+    <col min="6658" max="6659" width="20.625" style="20" customWidth="1"/>
+    <col min="6660" max="6660" width="18.125" style="20" customWidth="1"/>
+    <col min="6661" max="6661" width="5.375" style="20" customWidth="1"/>
+    <col min="6662" max="6662" width="5.625" style="20" customWidth="1"/>
+    <col min="6663" max="6663" width="6.875" style="20" customWidth="1"/>
+    <col min="6664" max="6666" width="10.625" style="20" customWidth="1"/>
+    <col min="6667" max="6912" width="11" style="20"/>
+    <col min="6913" max="6913" width="3.625" style="20" customWidth="1"/>
+    <col min="6914" max="6915" width="20.625" style="20" customWidth="1"/>
+    <col min="6916" max="6916" width="18.125" style="20" customWidth="1"/>
+    <col min="6917" max="6917" width="5.375" style="20" customWidth="1"/>
+    <col min="6918" max="6918" width="5.625" style="20" customWidth="1"/>
+    <col min="6919" max="6919" width="6.875" style="20" customWidth="1"/>
+    <col min="6920" max="6922" width="10.625" style="20" customWidth="1"/>
+    <col min="6923" max="7168" width="11" style="20"/>
+    <col min="7169" max="7169" width="3.625" style="20" customWidth="1"/>
+    <col min="7170" max="7171" width="20.625" style="20" customWidth="1"/>
+    <col min="7172" max="7172" width="18.125" style="20" customWidth="1"/>
+    <col min="7173" max="7173" width="5.375" style="20" customWidth="1"/>
+    <col min="7174" max="7174" width="5.625" style="20" customWidth="1"/>
+    <col min="7175" max="7175" width="6.875" style="20" customWidth="1"/>
+    <col min="7176" max="7178" width="10.625" style="20" customWidth="1"/>
+    <col min="7179" max="7424" width="11" style="20"/>
+    <col min="7425" max="7425" width="3.625" style="20" customWidth="1"/>
+    <col min="7426" max="7427" width="20.625" style="20" customWidth="1"/>
+    <col min="7428" max="7428" width="18.125" style="20" customWidth="1"/>
+    <col min="7429" max="7429" width="5.375" style="20" customWidth="1"/>
+    <col min="7430" max="7430" width="5.625" style="20" customWidth="1"/>
+    <col min="7431" max="7431" width="6.875" style="20" customWidth="1"/>
+    <col min="7432" max="7434" width="10.625" style="20" customWidth="1"/>
+    <col min="7435" max="7680" width="11" style="20"/>
+    <col min="7681" max="7681" width="3.625" style="20" customWidth="1"/>
+    <col min="7682" max="7683" width="20.625" style="20" customWidth="1"/>
+    <col min="7684" max="7684" width="18.125" style="20" customWidth="1"/>
+    <col min="7685" max="7685" width="5.375" style="20" customWidth="1"/>
+    <col min="7686" max="7686" width="5.625" style="20" customWidth="1"/>
+    <col min="7687" max="7687" width="6.875" style="20" customWidth="1"/>
+    <col min="7688" max="7690" width="10.625" style="20" customWidth="1"/>
+    <col min="7691" max="7936" width="11" style="20"/>
+    <col min="7937" max="7937" width="3.625" style="20" customWidth="1"/>
+    <col min="7938" max="7939" width="20.625" style="20" customWidth="1"/>
+    <col min="7940" max="7940" width="18.125" style="20" customWidth="1"/>
+    <col min="7941" max="7941" width="5.375" style="20" customWidth="1"/>
+    <col min="7942" max="7942" width="5.625" style="20" customWidth="1"/>
+    <col min="7943" max="7943" width="6.875" style="20" customWidth="1"/>
+    <col min="7944" max="7946" width="10.625" style="20" customWidth="1"/>
+    <col min="7947" max="8192" width="11" style="20"/>
+    <col min="8193" max="8193" width="3.625" style="20" customWidth="1"/>
+    <col min="8194" max="8195" width="20.625" style="20" customWidth="1"/>
+    <col min="8196" max="8196" width="18.125" style="20" customWidth="1"/>
+    <col min="8197" max="8197" width="5.375" style="20" customWidth="1"/>
+    <col min="8198" max="8198" width="5.625" style="20" customWidth="1"/>
+    <col min="8199" max="8199" width="6.875" style="20" customWidth="1"/>
+    <col min="8200" max="8202" width="10.625" style="20" customWidth="1"/>
+    <col min="8203" max="8448" width="11" style="20"/>
+    <col min="8449" max="8449" width="3.625" style="20" customWidth="1"/>
+    <col min="8450" max="8451" width="20.625" style="20" customWidth="1"/>
+    <col min="8452" max="8452" width="18.125" style="20" customWidth="1"/>
+    <col min="8453" max="8453" width="5.375" style="20" customWidth="1"/>
+    <col min="8454" max="8454" width="5.625" style="20" customWidth="1"/>
+    <col min="8455" max="8455" width="6.875" style="20" customWidth="1"/>
+    <col min="8456" max="8458" width="10.625" style="20" customWidth="1"/>
+    <col min="8459" max="8704" width="11" style="20"/>
+    <col min="8705" max="8705" width="3.625" style="20" customWidth="1"/>
+    <col min="8706" max="8707" width="20.625" style="20" customWidth="1"/>
+    <col min="8708" max="8708" width="18.125" style="20" customWidth="1"/>
+    <col min="8709" max="8709" width="5.375" style="20" customWidth="1"/>
+    <col min="8710" max="8710" width="5.625" style="20" customWidth="1"/>
+    <col min="8711" max="8711" width="6.875" style="20" customWidth="1"/>
+    <col min="8712" max="8714" width="10.625" style="20" customWidth="1"/>
+    <col min="8715" max="8960" width="11" style="20"/>
+    <col min="8961" max="8961" width="3.625" style="20" customWidth="1"/>
+    <col min="8962" max="8963" width="20.625" style="20" customWidth="1"/>
+    <col min="8964" max="8964" width="18.125" style="20" customWidth="1"/>
+    <col min="8965" max="8965" width="5.375" style="20" customWidth="1"/>
+    <col min="8966" max="8966" width="5.625" style="20" customWidth="1"/>
+    <col min="8967" max="8967" width="6.875" style="20" customWidth="1"/>
+    <col min="8968" max="8970" width="10.625" style="20" customWidth="1"/>
+    <col min="8971" max="9216" width="11" style="20"/>
+    <col min="9217" max="9217" width="3.625" style="20" customWidth="1"/>
+    <col min="9218" max="9219" width="20.625" style="20" customWidth="1"/>
+    <col min="9220" max="9220" width="18.125" style="20" customWidth="1"/>
+    <col min="9221" max="9221" width="5.375" style="20" customWidth="1"/>
+    <col min="9222" max="9222" width="5.625" style="20" customWidth="1"/>
+    <col min="9223" max="9223" width="6.875" style="20" customWidth="1"/>
+    <col min="9224" max="9226" width="10.625" style="20" customWidth="1"/>
+    <col min="9227" max="9472" width="11" style="20"/>
+    <col min="9473" max="9473" width="3.625" style="20" customWidth="1"/>
+    <col min="9474" max="9475" width="20.625" style="20" customWidth="1"/>
+    <col min="9476" max="9476" width="18.125" style="20" customWidth="1"/>
+    <col min="9477" max="9477" width="5.375" style="20" customWidth="1"/>
+    <col min="9478" max="9478" width="5.625" style="20" customWidth="1"/>
+    <col min="9479" max="9479" width="6.875" style="20" customWidth="1"/>
+    <col min="9480" max="9482" width="10.625" style="20" customWidth="1"/>
+    <col min="9483" max="9728" width="11" style="20"/>
+    <col min="9729" max="9729" width="3.625" style="20" customWidth="1"/>
+    <col min="9730" max="9731" width="20.625" style="20" customWidth="1"/>
+    <col min="9732" max="9732" width="18.125" style="20" customWidth="1"/>
+    <col min="9733" max="9733" width="5.375" style="20" customWidth="1"/>
+    <col min="9734" max="9734" width="5.625" style="20" customWidth="1"/>
+    <col min="9735" max="9735" width="6.875" style="20" customWidth="1"/>
+    <col min="9736" max="9738" width="10.625" style="20" customWidth="1"/>
+    <col min="9739" max="9984" width="11" style="20"/>
+    <col min="9985" max="9985" width="3.625" style="20" customWidth="1"/>
+    <col min="9986" max="9987" width="20.625" style="20" customWidth="1"/>
+    <col min="9988" max="9988" width="18.125" style="20" customWidth="1"/>
+    <col min="9989" max="9989" width="5.375" style="20" customWidth="1"/>
+    <col min="9990" max="9990" width="5.625" style="20" customWidth="1"/>
+    <col min="9991" max="9991" width="6.875" style="20" customWidth="1"/>
+    <col min="9992" max="9994" width="10.625" style="20" customWidth="1"/>
+    <col min="9995" max="10240" width="11" style="20"/>
+    <col min="10241" max="10241" width="3.625" style="20" customWidth="1"/>
+    <col min="10242" max="10243" width="20.625" style="20" customWidth="1"/>
+    <col min="10244" max="10244" width="18.125" style="20" customWidth="1"/>
+    <col min="10245" max="10245" width="5.375" style="20" customWidth="1"/>
+    <col min="10246" max="10246" width="5.625" style="20" customWidth="1"/>
+    <col min="10247" max="10247" width="6.875" style="20" customWidth="1"/>
+    <col min="10248" max="10250" width="10.625" style="20" customWidth="1"/>
+    <col min="10251" max="10496" width="11" style="20"/>
+    <col min="10497" max="10497" width="3.625" style="20" customWidth="1"/>
+    <col min="10498" max="10499" width="20.625" style="20" customWidth="1"/>
+    <col min="10500" max="10500" width="18.125" style="20" customWidth="1"/>
+    <col min="10501" max="10501" width="5.375" style="20" customWidth="1"/>
+    <col min="10502" max="10502" width="5.625" style="20" customWidth="1"/>
+    <col min="10503" max="10503" width="6.875" style="20" customWidth="1"/>
+    <col min="10504" max="10506" width="10.625" style="20" customWidth="1"/>
+    <col min="10507" max="10752" width="11" style="20"/>
+    <col min="10753" max="10753" width="3.625" style="20" customWidth="1"/>
+    <col min="10754" max="10755" width="20.625" style="20" customWidth="1"/>
+    <col min="10756" max="10756" width="18.125" style="20" customWidth="1"/>
+    <col min="10757" max="10757" width="5.375" style="20" customWidth="1"/>
+    <col min="10758" max="10758" width="5.625" style="20" customWidth="1"/>
+    <col min="10759" max="10759" width="6.875" style="20" customWidth="1"/>
+    <col min="10760" max="10762" width="10.625" style="20" customWidth="1"/>
+    <col min="10763" max="11008" width="11" style="20"/>
+    <col min="11009" max="11009" width="3.625" style="20" customWidth="1"/>
+    <col min="11010" max="11011" width="20.625" style="20" customWidth="1"/>
+    <col min="11012" max="11012" width="18.125" style="20" customWidth="1"/>
+    <col min="11013" max="11013" width="5.375" style="20" customWidth="1"/>
+    <col min="11014" max="11014" width="5.625" style="20" customWidth="1"/>
+    <col min="11015" max="11015" width="6.875" style="20" customWidth="1"/>
+    <col min="11016" max="11018" width="10.625" style="20" customWidth="1"/>
+    <col min="11019" max="11264" width="11" style="20"/>
+    <col min="11265" max="11265" width="3.625" style="20" customWidth="1"/>
+    <col min="11266" max="11267" width="20.625" style="20" customWidth="1"/>
+    <col min="11268" max="11268" width="18.125" style="20" customWidth="1"/>
+    <col min="11269" max="11269" width="5.375" style="20" customWidth="1"/>
+    <col min="11270" max="11270" width="5.625" style="20" customWidth="1"/>
+    <col min="11271" max="11271" width="6.875" style="20" customWidth="1"/>
+    <col min="11272" max="11274" width="10.625" style="20" customWidth="1"/>
+    <col min="11275" max="11520" width="11" style="20"/>
+    <col min="11521" max="11521" width="3.625" style="20" customWidth="1"/>
+    <col min="11522" max="11523" width="20.625" style="20" customWidth="1"/>
+    <col min="11524" max="11524" width="18.125" style="20" customWidth="1"/>
+    <col min="11525" max="11525" width="5.375" style="20" customWidth="1"/>
+    <col min="11526" max="11526" width="5.625" style="20" customWidth="1"/>
+    <col min="11527" max="11527" width="6.875" style="20" customWidth="1"/>
+    <col min="11528" max="11530" width="10.625" style="20" customWidth="1"/>
+    <col min="11531" max="11776" width="11" style="20"/>
+    <col min="11777" max="11777" width="3.625" style="20" customWidth="1"/>
+    <col min="11778" max="11779" width="20.625" style="20" customWidth="1"/>
+    <col min="11780" max="11780" width="18.125" style="20" customWidth="1"/>
+    <col min="11781" max="11781" width="5.375" style="20" customWidth="1"/>
+    <col min="11782" max="11782" width="5.625" style="20" customWidth="1"/>
+    <col min="11783" max="11783" width="6.875" style="20" customWidth="1"/>
+    <col min="11784" max="11786" width="10.625" style="20" customWidth="1"/>
+    <col min="11787" max="12032" width="11" style="20"/>
+    <col min="12033" max="12033" width="3.625" style="20" customWidth="1"/>
+    <col min="12034" max="12035" width="20.625" style="20" customWidth="1"/>
+    <col min="12036" max="12036" width="18.125" style="20" customWidth="1"/>
+    <col min="12037" max="12037" width="5.375" style="20" customWidth="1"/>
+    <col min="12038" max="12038" width="5.625" style="20" customWidth="1"/>
+    <col min="12039" max="12039" width="6.875" style="20" customWidth="1"/>
+    <col min="12040" max="12042" width="10.625" style="20" customWidth="1"/>
+    <col min="12043" max="12288" width="11" style="20"/>
+    <col min="12289" max="12289" width="3.625" style="20" customWidth="1"/>
+    <col min="12290" max="12291" width="20.625" style="20" customWidth="1"/>
+    <col min="12292" max="12292" width="18.125" style="20" customWidth="1"/>
+    <col min="12293" max="12293" width="5.375" style="20" customWidth="1"/>
+    <col min="12294" max="12294" width="5.625" style="20" customWidth="1"/>
+    <col min="12295" max="12295" width="6.875" style="20" customWidth="1"/>
+    <col min="12296" max="12298" width="10.625" style="20" customWidth="1"/>
+    <col min="12299" max="12544" width="11" style="20"/>
+    <col min="12545" max="12545" width="3.625" style="20" customWidth="1"/>
+    <col min="12546" max="12547" width="20.625" style="20" customWidth="1"/>
+    <col min="12548" max="12548" width="18.125" style="20" customWidth="1"/>
+    <col min="12549" max="12549" width="5.375" style="20" customWidth="1"/>
+    <col min="12550" max="12550" width="5.625" style="20" customWidth="1"/>
+    <col min="12551" max="12551" width="6.875" style="20" customWidth="1"/>
+    <col min="12552" max="12554" width="10.625" style="20" customWidth="1"/>
+    <col min="12555" max="12800" width="11" style="20"/>
+    <col min="12801" max="12801" width="3.625" style="20" customWidth="1"/>
+    <col min="12802" max="12803" width="20.625" style="20" customWidth="1"/>
+    <col min="12804" max="12804" width="18.125" style="20" customWidth="1"/>
+    <col min="12805" max="12805" width="5.375" style="20" customWidth="1"/>
+    <col min="12806" max="12806" width="5.625" style="20" customWidth="1"/>
+    <col min="12807" max="12807" width="6.875" style="20" customWidth="1"/>
+    <col min="12808" max="12810" width="10.625" style="20" customWidth="1"/>
+    <col min="12811" max="13056" width="11" style="20"/>
+    <col min="13057" max="13057" width="3.625" style="20" customWidth="1"/>
+    <col min="13058" max="13059" width="20.625" style="20" customWidth="1"/>
+    <col min="13060" max="13060" width="18.125" style="20" customWidth="1"/>
+    <col min="13061" max="13061" width="5.375" style="20" customWidth="1"/>
+    <col min="13062" max="13062" width="5.625" style="20" customWidth="1"/>
+    <col min="13063" max="13063" width="6.875" style="20" customWidth="1"/>
+    <col min="13064" max="13066" width="10.625" style="20" customWidth="1"/>
+    <col min="13067" max="13312" width="11" style="20"/>
+    <col min="13313" max="13313" width="3.625" style="20" customWidth="1"/>
+    <col min="13314" max="13315" width="20.625" style="20" customWidth="1"/>
+    <col min="13316" max="13316" width="18.125" style="20" customWidth="1"/>
+    <col min="13317" max="13317" width="5.375" style="20" customWidth="1"/>
+    <col min="13318" max="13318" width="5.625" style="20" customWidth="1"/>
+    <col min="13319" max="13319" width="6.875" style="20" customWidth="1"/>
+    <col min="13320" max="13322" width="10.625" style="20" customWidth="1"/>
+    <col min="13323" max="13568" width="11" style="20"/>
+    <col min="13569" max="13569" width="3.625" style="20" customWidth="1"/>
+    <col min="13570" max="13571" width="20.625" style="20" customWidth="1"/>
+    <col min="13572" max="13572" width="18.125" style="20" customWidth="1"/>
+    <col min="13573" max="13573" width="5.375" style="20" customWidth="1"/>
+    <col min="13574" max="13574" width="5.625" style="20" customWidth="1"/>
+    <col min="13575" max="13575" width="6.875" style="20" customWidth="1"/>
+    <col min="13576" max="13578" width="10.625" style="20" customWidth="1"/>
+    <col min="13579" max="13824" width="11" style="20"/>
+    <col min="13825" max="13825" width="3.625" style="20" customWidth="1"/>
+    <col min="13826" max="13827" width="20.625" style="20" customWidth="1"/>
+    <col min="13828" max="13828" width="18.125" style="20" customWidth="1"/>
+    <col min="13829" max="13829" width="5.375" style="20" customWidth="1"/>
+    <col min="13830" max="13830" width="5.625" style="20" customWidth="1"/>
+    <col min="13831" max="13831" width="6.875" style="20" customWidth="1"/>
+    <col min="13832" max="13834" width="10.625" style="20" customWidth="1"/>
+    <col min="13835" max="14080" width="11" style="20"/>
+    <col min="14081" max="14081" width="3.625" style="20" customWidth="1"/>
+    <col min="14082" max="14083" width="20.625" style="20" customWidth="1"/>
+    <col min="14084" max="14084" width="18.125" style="20" customWidth="1"/>
+    <col min="14085" max="14085" width="5.375" style="20" customWidth="1"/>
+    <col min="14086" max="14086" width="5.625" style="20" customWidth="1"/>
+    <col min="14087" max="14087" width="6.875" style="20" customWidth="1"/>
+    <col min="14088" max="14090" width="10.625" style="20" customWidth="1"/>
+    <col min="14091" max="14336" width="11" style="20"/>
+    <col min="14337" max="14337" width="3.625" style="20" customWidth="1"/>
+    <col min="14338" max="14339" width="20.625" style="20" customWidth="1"/>
+    <col min="14340" max="14340" width="18.125" style="20" customWidth="1"/>
+    <col min="14341" max="14341" width="5.375" style="20" customWidth="1"/>
+    <col min="14342" max="14342" width="5.625" style="20" customWidth="1"/>
+    <col min="14343" max="14343" width="6.875" style="20" customWidth="1"/>
+    <col min="14344" max="14346" width="10.625" style="20" customWidth="1"/>
+    <col min="14347" max="14592" width="11" style="20"/>
+    <col min="14593" max="14593" width="3.625" style="20" customWidth="1"/>
+    <col min="14594" max="14595" width="20.625" style="20" customWidth="1"/>
+    <col min="14596" max="14596" width="18.125" style="20" customWidth="1"/>
+    <col min="14597" max="14597" width="5.375" style="20" customWidth="1"/>
+    <col min="14598" max="14598" width="5.625" style="20" customWidth="1"/>
+    <col min="14599" max="14599" width="6.875" style="20" customWidth="1"/>
+    <col min="14600" max="14602" width="10.625" style="20" customWidth="1"/>
+    <col min="14603" max="14848" width="11" style="20"/>
+    <col min="14849" max="14849" width="3.625" style="20" customWidth="1"/>
+    <col min="14850" max="14851" width="20.625" style="20" customWidth="1"/>
+    <col min="14852" max="14852" width="18.125" style="20" customWidth="1"/>
+    <col min="14853" max="14853" width="5.375" style="20" customWidth="1"/>
+    <col min="14854" max="14854" width="5.625" style="20" customWidth="1"/>
+    <col min="14855" max="14855" width="6.875" style="20" customWidth="1"/>
+    <col min="14856" max="14858" width="10.625" style="20" customWidth="1"/>
+    <col min="14859" max="15104" width="11" style="20"/>
+    <col min="15105" max="15105" width="3.625" style="20" customWidth="1"/>
+    <col min="15106" max="15107" width="20.625" style="20" customWidth="1"/>
+    <col min="15108" max="15108" width="18.125" style="20" customWidth="1"/>
+    <col min="15109" max="15109" width="5.375" style="20" customWidth="1"/>
+    <col min="15110" max="15110" width="5.625" style="20" customWidth="1"/>
+    <col min="15111" max="15111" width="6.875" style="20" customWidth="1"/>
+    <col min="15112" max="15114" width="10.625" style="20" customWidth="1"/>
+    <col min="15115" max="15360" width="11" style="20"/>
+    <col min="15361" max="15361" width="3.625" style="20" customWidth="1"/>
+    <col min="15362" max="15363" width="20.625" style="20" customWidth="1"/>
+    <col min="15364" max="15364" width="18.125" style="20" customWidth="1"/>
+    <col min="15365" max="15365" width="5.375" style="20" customWidth="1"/>
+    <col min="15366" max="15366" width="5.625" style="20" customWidth="1"/>
+    <col min="15367" max="15367" width="6.875" style="20" customWidth="1"/>
+    <col min="15368" max="15370" width="10.625" style="20" customWidth="1"/>
+    <col min="15371" max="15616" width="11" style="20"/>
+    <col min="15617" max="15617" width="3.625" style="20" customWidth="1"/>
+    <col min="15618" max="15619" width="20.625" style="20" customWidth="1"/>
+    <col min="15620" max="15620" width="18.125" style="20" customWidth="1"/>
+    <col min="15621" max="15621" width="5.375" style="20" customWidth="1"/>
+    <col min="15622" max="15622" width="5.625" style="20" customWidth="1"/>
+    <col min="15623" max="15623" width="6.875" style="20" customWidth="1"/>
+    <col min="15624" max="15626" width="10.625" style="20" customWidth="1"/>
+    <col min="15627" max="15872" width="11" style="20"/>
+    <col min="15873" max="15873" width="3.625" style="20" customWidth="1"/>
+    <col min="15874" max="15875" width="20.625" style="20" customWidth="1"/>
+    <col min="15876" max="15876" width="18.125" style="20" customWidth="1"/>
+    <col min="15877" max="15877" width="5.375" style="20" customWidth="1"/>
+    <col min="15878" max="15878" width="5.625" style="20" customWidth="1"/>
+    <col min="15879" max="15879" width="6.875" style="20" customWidth="1"/>
+    <col min="15880" max="15882" width="10.625" style="20" customWidth="1"/>
+    <col min="15883" max="16128" width="11" style="20"/>
+    <col min="16129" max="16129" width="3.625" style="20" customWidth="1"/>
+    <col min="16130" max="16131" width="20.625" style="20" customWidth="1"/>
+    <col min="16132" max="16132" width="18.125" style="20" customWidth="1"/>
+    <col min="16133" max="16133" width="5.375" style="20" customWidth="1"/>
+    <col min="16134" max="16134" width="5.625" style="20" customWidth="1"/>
+    <col min="16135" max="16135" width="6.875" style="20" customWidth="1"/>
+    <col min="16136" max="16138" width="10.625" style="20" customWidth="1"/>
+    <col min="16139" max="16384" width="11" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="26">
+        <v>50</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="L6" s="20" t="e">
+        <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D14))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="20" t="e">
+        <f t="shared" ref="M6:M14" si="0">SUBSTITUTE(K6,L6,"")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="26">
+        <v>255</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="L9" s="20" t="e">
+        <f t="shared" ref="L9:L14" si="1">LOOKUP(10^17,RIGHT(K9,COLUMN(D19))*1)*-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="L10" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="L11" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="L12" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9669,9 +11159,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9686,22 +11176,14 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
-      <c r="L15" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -9709,39 +11191,23 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
-      <c r="L16" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="L17" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -9749,23 +11215,23 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -9773,11 +11239,11 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -9785,11 +11251,11 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-    </row>
-    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -9797,11 +11263,11 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -9809,35 +11275,35 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-    </row>
-    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -9845,11 +11311,11 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-    </row>
-    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -9857,11 +11323,11 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-    </row>
-    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -9869,23 +11335,23 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-    </row>
-    <row r="29" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-    </row>
-    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -9893,33 +11359,33 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
-    </row>
-    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
-    </row>
-    <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -9929,45 +11395,45 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -9977,33 +11443,33 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
       <c r="B38" s="27"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="27"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -10013,9 +11479,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -10025,9 +11491,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="65"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -10037,9 +11503,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -10049,9 +11515,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -10061,33 +11527,33 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
       <c r="B45" s="27"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="65"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="65"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -10097,9 +11563,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="65"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -10109,9 +11575,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="65"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -10121,9 +11587,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="65"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -10133,9 +11599,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="65"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -10145,9 +11611,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="65"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -10157,9 +11623,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -10169,9 +11635,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -10181,9 +11647,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -10193,9 +11659,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="48"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -10205,9 +11671,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="65"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -10217,9 +11683,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="65"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -10228,55 +11694,73 @@
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="69"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="25"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="69"/>
-    </row>
-    <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="25"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="69"/>
-    </row>
-    <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="22"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="72"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="65">
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -10284,62 +11768,12 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/データベース定義書.xlsx
+++ b/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E85DF21-FCFF-4300-8938-4D91311B8AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C76E99-6C83-4681-856B-5BD373A31560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2625" windowWidth="19155" windowHeight="11100" firstSheet="1" activeTab="6" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
+    <workbookView xWindow="4005" yWindow="3600" windowWidth="23010" windowHeight="12210" firstSheet="1" activeTab="5" xr2:uid="{4764A8EC-A488-47F6-BBA8-793CFA6427AB}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -434,26 +434,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>pkBetMEDAL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>pkGetCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>hlBetMEDAL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>hlPlayCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>hlGetCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>myMedal</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -477,10 +457,7 @@
       <t>ショジ</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒヅケ</t>
+      <t>スウヒヅケ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -493,6 +470,26 @@
   </si>
   <si>
     <t>snapshotDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pkGetMedal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pkBetMedal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hl_bet_medal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hl_play_count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hl_get_medal</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1004,6 +1001,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,16 +1025,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,69 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1531,19 +1528,19 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="S1" s="3"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
     </row>
     <row r="2" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F2" s="1"/>
@@ -1636,39 +1633,39 @@
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="J11" s="8"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="43"/>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="43"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1676,39 +1673,39 @@
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
       <c r="J12" s="8"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1716,39 +1713,39 @@
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="43"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1756,41 +1753,41 @@
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
       <c r="J14" s="8"/>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1798,39 +1795,39 @@
       <c r="G15" s="1"/>
       <c r="H15" s="4"/>
       <c r="J15" s="8"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="6:55" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1838,39 +1835,39 @@
       <c r="G16" s="1"/>
       <c r="H16" s="4"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1885,39 +1882,39 @@
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="43"/>
-      <c r="AK18" s="43"/>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="43"/>
-      <c r="AN18" s="43"/>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="43"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1925,39 +1922,39 @@
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
       <c r="J19" s="8"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="43"/>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="43"/>
-      <c r="AL19" s="43"/>
-      <c r="AM19" s="43"/>
-      <c r="AN19" s="43"/>
-      <c r="AO19" s="43"/>
-      <c r="AP19" s="43"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1965,41 +1962,41 @@
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="J20" s="8"/>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2007,39 +2004,39 @@
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
       <c r="J21" s="8"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2047,39 +2044,39 @@
       <c r="G22" s="1"/>
       <c r="H22" s="4"/>
       <c r="J22" s="8"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="41"/>
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2087,39 +2084,39 @@
       <c r="G23" s="1"/>
       <c r="H23" s="4"/>
       <c r="J23" s="8"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2127,39 +2124,39 @@
       <c r="G24" s="1"/>
       <c r="H24" s="4"/>
       <c r="J24" s="8"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2227,79 +2224,79 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="4"/>
-      <c r="L29" s="39">
+      <c r="L29" s="43">
         <v>45947</v>
       </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
     </row>
     <row r="30" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="4"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
     </row>
     <row r="31" spans="6:46" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="1"/>
@@ -2310,79 +2307,79 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="4"/>
-      <c r="L32" s="40">
+      <c r="L32" s="44">
         <v>1</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="40"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
     </row>
     <row r="33" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="4"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="40"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="40"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="40"/>
-      <c r="AK33" s="40"/>
-      <c r="AL33" s="40"/>
-      <c r="AM33" s="40"/>
-      <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="40"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
     </row>
     <row r="34" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F34" s="1"/>
@@ -2434,77 +2431,77 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="4"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-      <c r="AK42" s="39"/>
-      <c r="AL42" s="39"/>
-      <c r="AM42" s="39"/>
-      <c r="AN42" s="39"/>
-      <c r="AO42" s="39"/>
-      <c r="AP42" s="39"/>
-      <c r="AQ42" s="39"/>
-      <c r="AR42" s="39"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="43"/>
+      <c r="AN42" s="43"/>
+      <c r="AO42" s="43"/>
+      <c r="AP42" s="43"/>
+      <c r="AQ42" s="43"/>
+      <c r="AR42" s="43"/>
     </row>
     <row r="43" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="4"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="39"/>
-      <c r="AC43" s="39"/>
-      <c r="AD43" s="39"/>
-      <c r="AE43" s="39"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="39"/>
-      <c r="AH43" s="39"/>
-      <c r="AI43" s="39"/>
-      <c r="AJ43" s="39"/>
-      <c r="AK43" s="39"/>
-      <c r="AL43" s="39"/>
-      <c r="AM43" s="39"/>
-      <c r="AN43" s="39"/>
-      <c r="AO43" s="39"/>
-      <c r="AP43" s="39"/>
-      <c r="AQ43" s="39"/>
-      <c r="AR43" s="39"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="43"/>
+      <c r="AM43" s="43"/>
+      <c r="AN43" s="43"/>
+      <c r="AO43" s="43"/>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="43"/>
+      <c r="AR43" s="43"/>
     </row>
     <row r="44" spans="6:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F44" s="1"/>
@@ -2915,16 +2912,16 @@
     <row r="438" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L23:AR24"/>
+    <mergeCell ref="L29:AR30"/>
+    <mergeCell ref="L32:AR33"/>
+    <mergeCell ref="L42:AR43"/>
+    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:BC1"/>
     <mergeCell ref="L11:AR13"/>
     <mergeCell ref="L14:AR16"/>
     <mergeCell ref="L18:AR19"/>
     <mergeCell ref="L20:AR22"/>
-    <mergeCell ref="L23:AR24"/>
-    <mergeCell ref="L29:AR30"/>
-    <mergeCell ref="L32:AR33"/>
-    <mergeCell ref="L42:AR43"/>
-    <mergeCell ref="AQ1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3464,19 +3461,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -3488,48 +3485,48 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -3553,11 +3550,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -3568,9 +3565,9 @@
       <c r="E6" s="31"/>
       <c r="F6" s="25"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f t="shared" ref="L6:L16" si="0">LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -3588,9 +3585,9 @@
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3608,9 +3605,9 @@
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3628,9 +3625,9 @@
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3648,9 +3645,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3668,9 +3665,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3688,9 +3685,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3708,9 +3705,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3728,9 +3725,9 @@
       <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3748,9 +3745,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3768,9 +3765,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
       <c r="L16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3788,9 +3785,9 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -3800,9 +3797,9 @@
       <c r="E18" s="31"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -3812,9 +3809,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -3824,9 +3821,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -3836,9 +3833,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -3848,9 +3845,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -3860,9 +3857,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -3872,9 +3869,9 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -3884,9 +3881,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -3896,9 +3893,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -3908,9 +3905,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -3920,9 +3917,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -3932,9 +3929,9 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -3944,9 +3941,9 @@
       <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -3956,9 +3953,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -3968,9 +3965,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -3980,9 +3977,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -3992,9 +3989,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -4004,9 +4001,9 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -4016,9 +4013,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -4028,9 +4025,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -4040,9 +4037,9 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -4052,9 +4049,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -4064,9 +4061,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -4076,9 +4073,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -4088,9 +4085,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -4100,9 +4097,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -4112,9 +4109,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -4124,9 +4121,9 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -4136,9 +4133,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -4148,9 +4145,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -4160,9 +4157,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -4172,9 +4169,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -4184,9 +4181,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -4196,9 +4193,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -4208,9 +4205,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -4220,9 +4217,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -4232,9 +4229,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -4244,9 +4241,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -4256,9 +4253,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="65"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -4268,9 +4265,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -4280,9 +4277,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -4292,9 +4289,9 @@
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="48"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
@@ -4304,25 +4301,56 @@
       <c r="E60" s="23"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -4335,50 +4363,19 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4918,19 +4915,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -4942,56 +4939,56 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -5015,11 +5012,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -5042,9 +5039,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D14))*1)*-1</f>
         <v>#N/A</v>
@@ -5072,9 +5069,9 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -5102,9 +5099,9 @@
         <v>28</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K8,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
@@ -5128,9 +5125,9 @@
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
         <f t="shared" ref="L9:L15" si="1">LOOKUP(10^17,RIGHT(K9,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -5154,9 +5151,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5174,9 +5171,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5194,9 +5191,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5214,9 +5211,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5234,9 +5231,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5254,9 +5251,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -5274,9 +5271,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -5286,9 +5283,9 @@
       <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -5298,9 +5295,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -5310,9 +5307,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -5322,9 +5319,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -5334,9 +5331,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -5346,9 +5343,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -5358,9 +5355,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -5370,9 +5367,9 @@
       <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -5382,9 +5379,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -5394,9 +5391,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -5406,9 +5403,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -5418,9 +5415,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -5430,9 +5427,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -5442,9 +5439,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -5454,9 +5451,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -5466,9 +5463,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -5478,9 +5475,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -5490,9 +5487,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -5502,9 +5499,9 @@
       <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -5514,9 +5511,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -5526,9 +5523,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -5538,9 +5535,9 @@
       <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -5550,9 +5547,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -5562,9 +5559,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -5574,9 +5571,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -5586,9 +5583,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -5598,9 +5595,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -5610,9 +5607,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -5622,9 +5619,9 @@
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -5634,9 +5631,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -5646,9 +5643,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -5658,9 +5655,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -5670,9 +5667,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -5682,9 +5679,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -5694,9 +5691,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -5706,9 +5703,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -5718,9 +5715,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -5730,9 +5727,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -5742,9 +5739,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -5754,9 +5751,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -5766,9 +5763,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -5778,9 +5775,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
@@ -5790,53 +5787,23 @@
       <c r="E59" s="23"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="H47:J47"/>
@@ -5853,17 +5820,47 @@
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -6403,19 +6400,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -6427,56 +6424,56 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -6500,11 +6497,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6527,9 +6524,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -6617,9 +6614,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" ref="L10:L15" si="1">LOOKUP(10^17,RIGHT(K10,COLUMN(D19))*1)*-1</f>
         <v>#N/A</v>
@@ -6643,9 +6640,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6663,9 +6660,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6683,9 +6680,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6703,9 +6700,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6723,9 +6720,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -6743,9 +6740,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -6755,9 +6752,9 @@
       <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -6767,9 +6764,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -6779,9 +6776,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -6791,9 +6788,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -6803,9 +6800,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -6815,9 +6812,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -6827,9 +6824,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -6839,9 +6836,9 @@
       <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -6851,9 +6848,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -6863,9 +6860,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -6875,9 +6872,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -6887,9 +6884,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -6899,9 +6896,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -6911,9 +6908,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -6923,9 +6920,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -6935,9 +6932,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -6947,9 +6944,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -6959,9 +6956,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -6971,9 +6968,9 @@
       <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -6983,9 +6980,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -6995,9 +6992,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -7007,9 +7004,9 @@
       <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -7019,9 +7016,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -7031,9 +7028,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -7043,9 +7040,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -7055,9 +7052,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -7067,9 +7064,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -7079,9 +7076,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -7091,9 +7088,9 @@
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -7103,9 +7100,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -7115,9 +7112,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -7127,9 +7124,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -7139,9 +7136,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -7151,9 +7148,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -7163,9 +7160,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -7175,9 +7172,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -7187,9 +7184,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -7199,9 +7196,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -7211,9 +7208,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -7223,9 +7220,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -7235,9 +7232,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -7247,9 +7244,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
@@ -7259,33 +7256,44 @@
       <c r="E59" s="23"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
@@ -7298,38 +7306,27 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -7349,7 +7346,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7869,19 +7866,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -7893,52 +7890,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -7962,11 +7959,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7989,9 +7986,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -8007,7 +8004,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>39</v>
@@ -8019,9 +8016,9 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
@@ -8049,9 +8046,9 @@
         <v>28</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
         <f t="shared" ref="L8:L15" si="1">LOOKUP(10^17,RIGHT(K8,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -8067,7 +8064,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>39</v>
@@ -8079,9 +8076,9 @@
         <v>28</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8105,9 +8102,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8131,9 +8128,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8151,9 +8148,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8171,9 +8168,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8191,9 +8188,9 @@
       <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8211,9 +8208,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -8231,9 +8228,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -8243,9 +8240,9 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -8255,9 +8252,9 @@
       <c r="E18" s="31"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -8267,9 +8264,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -8279,9 +8276,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -8291,9 +8288,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -8303,9 +8300,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -8315,9 +8312,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -8327,9 +8324,9 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -8339,9 +8336,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -8351,9 +8348,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -8363,9 +8360,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -8375,9 +8372,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -8387,9 +8384,9 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -8399,9 +8396,9 @@
       <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -8411,9 +8408,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -8423,9 +8420,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -8435,9 +8432,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -8447,9 +8444,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -8459,9 +8456,9 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -8471,9 +8468,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -8483,9 +8480,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -8495,9 +8492,9 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -8507,9 +8504,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -8519,9 +8516,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -8531,9 +8528,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -8543,9 +8540,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -8555,9 +8552,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -8567,9 +8564,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -8579,9 +8576,9 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -8591,9 +8588,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -8603,9 +8600,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -8615,9 +8612,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -8627,9 +8624,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -8639,9 +8636,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -8651,9 +8648,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -8663,9 +8660,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -8675,9 +8672,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -8687,9 +8684,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -8699,9 +8696,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -8711,9 +8708,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -8723,9 +8720,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -8735,9 +8732,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -8747,9 +8744,9 @@
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
@@ -8761,30 +8758,38 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
@@ -8797,38 +8802,30 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -8847,8 +8844,8 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9368,19 +9365,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -9392,52 +9389,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -9461,11 +9458,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -9488,9 +9485,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D15))*1)*-1</f>
         <v>#N/A</v>
@@ -9506,7 +9503,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>39</v>
@@ -9518,9 +9515,9 @@
         <v>28</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K7,COLUMN(D16))*1)*-1</f>
         <v>#N/A</v>
@@ -9536,7 +9533,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>39</v>
@@ -9548,9 +9545,9 @@
         <v>28</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="20" t="e">
         <f t="shared" ref="L8:L15" si="1">LOOKUP(10^17,RIGHT(K8,COLUMN(D18))*1)*-1</f>
         <v>#N/A</v>
@@ -9566,7 +9563,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>39</v>
@@ -9578,9 +9575,9 @@
         <v>28</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9604,9 +9601,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9630,9 +9627,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9650,9 +9647,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9670,9 +9667,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9690,9 +9687,9 @@
       <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9710,9 +9707,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -9730,9 +9727,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -9742,9 +9739,9 @@
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -9754,9 +9751,9 @@
       <c r="E18" s="31"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -9766,9 +9763,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -9778,9 +9775,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -9790,9 +9787,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -9802,9 +9799,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -9814,9 +9811,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -9826,9 +9823,9 @@
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -9838,9 +9835,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -9850,9 +9847,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -9862,9 +9859,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -9874,9 +9871,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -9886,9 +9883,9 @@
       <c r="E29" s="31"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -9898,9 +9895,9 @@
       <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -9910,9 +9907,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -9922,9 +9919,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -9934,9 +9931,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -9946,9 +9943,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -9958,9 +9955,9 @@
       <c r="E35" s="31"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -9970,9 +9967,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -9982,9 +9979,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -9994,9 +9991,9 @@
       <c r="E38" s="26"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -10006,9 +10003,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -10018,9 +10015,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -10030,9 +10027,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -10042,9 +10039,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -10054,9 +10051,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -10066,9 +10063,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -10078,9 +10075,9 @@
       <c r="E45" s="31"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -10090,9 +10087,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -10102,9 +10099,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -10114,9 +10111,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -10126,9 +10123,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -10138,9 +10135,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -10150,9 +10147,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -10162,9 +10159,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -10174,9 +10171,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -10186,9 +10183,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -10198,9 +10195,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -10210,9 +10207,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -10222,9 +10219,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -10234,9 +10231,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="48"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
@@ -10246,9 +10243,9 @@
       <c r="E59" s="26"/>
       <c r="F59" s="25"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
@@ -10260,6 +10257,67 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H59:J59"/>
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="H54:J54"/>
@@ -10267,67 +10325,6 @@
     <mergeCell ref="H56:J56"/>
     <mergeCell ref="H57:J57"/>
     <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10346,8 +10343,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10867,19 +10864,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="37" t="s">
         <v>16</v>
       </c>
@@ -10891,52 +10888,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:13" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -10960,11 +10957,11 @@
       <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -10987,9 +10984,9 @@
         <v>28</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="20" t="e">
         <f>LOOKUP(10^17,RIGHT(K6,COLUMN(D14))*1)*-1</f>
         <v>#N/A</v>
@@ -11002,10 +10999,10 @@
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>45</v>
@@ -11020,10 +11017,10 @@
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>39</v>
@@ -11053,9 +11050,9 @@
       <c r="E9" s="26"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="20" t="e">
         <f t="shared" ref="L9:L14" si="1">LOOKUP(10^17,RIGHT(K9,COLUMN(D19))*1)*-1</f>
         <v>#N/A</v>
@@ -11079,9 +11076,9 @@
       <c r="E10" s="26"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -11099,9 +11096,9 @@
       <c r="E11" s="26"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -11119,9 +11116,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="L12" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -11139,9 +11136,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="L13" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -11159,9 +11156,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="L14" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -11179,9 +11176,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
@@ -11191,9 +11188,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
@@ -11203,9 +11200,9 @@
       <c r="E17" s="31"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
@@ -11215,9 +11212,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
@@ -11227,9 +11224,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
@@ -11239,9 +11236,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
@@ -11251,9 +11248,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
@@ -11263,9 +11260,9 @@
       <c r="E22" s="26"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
@@ -11275,9 +11272,9 @@
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
@@ -11287,9 +11284,9 @@
       <c r="E24" s="31"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
@@ -11299,9 +11296,9 @@
       <c r="E25" s="31"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
@@ -11311,9 +11308,9 @@
       <c r="E26" s="31"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
@@ -11323,9 +11320,9 @@
       <c r="E27" s="31"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
@@ -11335,9 +11332,9 @@
       <c r="E28" s="31"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
@@ -11347,9 +11344,9 @@
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
@@ -11359,9 +11356,9 @@
       <c r="E30" s="31"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
@@ -11371,9 +11368,9 @@
       <c r="E31" s="31"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
@@ -11383,9 +11380,9 @@
       <c r="E32" s="31"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
@@ -11395,9 +11392,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
@@ -11407,9 +11404,9 @@
       <c r="E34" s="31"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
@@ -11419,9 +11416,9 @@
       <c r="E35" s="26"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
@@ -11431,9 +11428,9 @@
       <c r="E36" s="26"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
@@ -11443,9 +11440,9 @@
       <c r="E37" s="26"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
@@ -11455,9 +11452,9 @@
       <c r="E38" s="31"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
@@ -11467,9 +11464,9 @@
       <c r="E39" s="31"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -11479,9 +11476,9 @@
       <c r="E40" s="31"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
@@ -11491,9 +11488,9 @@
       <c r="E41" s="31"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
@@ -11503,9 +11500,9 @@
       <c r="E42" s="31"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
@@ -11515,9 +11512,9 @@
       <c r="E43" s="31"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="54"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
@@ -11527,9 +11524,9 @@
       <c r="E44" s="31"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
@@ -11539,9 +11536,9 @@
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
@@ -11551,9 +11548,9 @@
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
@@ -11563,9 +11560,9 @@
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
@@ -11575,9 +11572,9 @@
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
@@ -11587,9 +11584,9 @@
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
@@ -11599,9 +11596,9 @@
       <c r="E50" s="26"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
@@ -11611,9 +11608,9 @@
       <c r="E51" s="26"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
@@ -11623,9 +11620,9 @@
       <c r="E52" s="26"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
@@ -11635,9 +11632,9 @@
       <c r="E53" s="26"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
@@ -11647,9 +11644,9 @@
       <c r="E54" s="26"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -11659,9 +11656,9 @@
       <c r="E55" s="26"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="48"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="69"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -11671,9 +11668,9 @@
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -11683,9 +11680,9 @@
       <c r="E57" s="26"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
@@ -11695,9 +11692,9 @@
       <c r="E58" s="26"/>
       <c r="F58" s="25"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="51"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="72"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22"/>
@@ -11709,61 +11706,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A4:B4"/>
@@ -11774,6 +11716,61 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
